--- a/library/export_abstract2.xlsx
+++ b/library/export_abstract2.xlsx
@@ -358,8 +358,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -367,17 +365,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -393,49 +386,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -443,44 +393,104 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,7 +906,7 @@
   <dimension ref="A3:T201"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="F16" sqref="F16:T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,82 +940,82 @@
     <row r="8" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="44" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="42" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="51" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="55"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="42" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="56"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1024,46 +1034,46 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="37" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="34"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1082,688 +1092,928 @@
       <c r="N15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="T15" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+    </row>
+    <row r="19" spans="1:20" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1779,7 +2029,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1795,7 +2045,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1811,7 +2061,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1827,7 +2077,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1843,7 +2093,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1859,7 +2109,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1875,7 +2125,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4085,22 +4335,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="P11:Q12"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="J8:O8"/>
     <mergeCell ref="J9:O9"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="61" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_abstract2.xlsx
+++ b/library/export_abstract2.xlsx
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -389,16 +389,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -411,23 +403,62 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,62 +466,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +904,7 @@
   <dimension ref="A3:T201"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:T56"/>
+      <selection activeCell="P10" sqref="P10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,82 +938,82 @@
     <row r="8" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="18"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22" t="s">
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="22" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="18"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="26" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="18"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1034,46 +1032,46 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="39" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1113,12 +1111,12 @@
     </row>
     <row r="16" spans="1:20" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1126,12 +1124,12 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -1139,8 +1137,8 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1148,12 +1146,12 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1161,8 +1159,8 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -1170,12 +1168,12 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="1:20" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -1183,8 +1181,8 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1192,12 +1190,12 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1205,8 +1203,8 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1214,12 +1212,12 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1227,8 +1225,8 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -1236,12 +1234,12 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -1249,8 +1247,8 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -1258,12 +1256,12 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -1271,8 +1269,8 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -1280,12 +1278,12 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -1293,8 +1291,8 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -1302,12 +1300,12 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -1315,8 +1313,8 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -1324,12 +1322,12 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
@@ -1337,8 +1335,8 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -1346,12 +1344,12 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -1359,8 +1357,8 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -1368,12 +1366,12 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
@@ -1381,8 +1379,8 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -1390,12 +1388,12 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -1403,21 +1401,21 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
@@ -1425,21 +1423,21 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
@@ -1447,21 +1445,21 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1469,21 +1467,21 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -1491,21 +1489,21 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -1513,21 +1511,21 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -1535,21 +1533,21 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1557,21 +1555,21 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -1579,21 +1577,21 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -1601,21 +1599,21 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -1623,21 +1621,21 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -1645,21 +1643,21 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -1667,21 +1665,21 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
@@ -1689,21 +1687,21 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
@@ -1711,21 +1709,21 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
@@ -1733,21 +1731,21 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1755,21 +1753,21 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -1777,21 +1775,21 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -1799,21 +1797,21 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -1821,21 +1819,21 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
@@ -1843,21 +1841,21 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
@@ -1865,21 +1863,21 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
@@ -1887,21 +1885,21 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
@@ -1909,21 +1907,21 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
@@ -1931,21 +1929,21 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1953,21 +1951,21 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
@@ -1975,21 +1973,21 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
@@ -1997,21 +1995,21 @@
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -4334,7 +4332,16 @@
       <c r="N201" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A14:A15"/>
@@ -4345,12 +4352,6 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="61" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
